--- a/data_exploration/acl/tables/example_lengths_pos_xlm-roberta.xlsx
+++ b/data_exploration/acl/tables/example_lengths_pos_xlm-roberta.xlsx
@@ -599,19 +599,19 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>656</v>
+        <v>4477</v>
       </c>
       <c r="C9">
-        <v>604</v>
+        <v>4238</v>
       </c>
       <c r="D9">
-        <v>656</v>
+        <v>4454</v>
       </c>
       <c r="E9">
-        <v>656</v>
+        <v>4476</v>
       </c>
       <c r="F9">
-        <v>656</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="10" spans="1:6">
